--- a/data/Produits.xlsx
+++ b/data/Produits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,21 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P00014</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bague</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Produits.xlsx
+++ b/data/Produits.xlsx
@@ -1,37 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore.LE_F\OneDrive\Documents\TP\Application-Console-de-Facturation-et-Statistiques-de-Ventes\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CC1B32-AE8E-4342-B512-AAE50EE2BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t>code_produit</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>prix_unitaire</t>
+  </si>
+  <si>
+    <t>P00001</t>
+  </si>
+  <si>
+    <t>Clavier USB</t>
+  </si>
+  <si>
+    <t>P00002</t>
+  </si>
+  <si>
+    <t>Souris Optique</t>
+  </si>
+  <si>
+    <t>P00003</t>
+  </si>
+  <si>
+    <t>Écran 24"</t>
+  </si>
+  <si>
+    <t>P00004</t>
+  </si>
+  <si>
+    <t>UC i5</t>
+  </si>
+  <si>
+    <t>P00005</t>
+  </si>
+  <si>
+    <t>Câble HDMI</t>
+  </si>
+  <si>
+    <t>P00006</t>
+  </si>
+  <si>
+    <t>RAM 8Go DDR4</t>
+  </si>
+  <si>
+    <t>P00007</t>
+  </si>
+  <si>
+    <t>SSD 256Go</t>
+  </si>
+  <si>
+    <t>P00008</t>
+  </si>
+  <si>
+    <t>Disque dur 1To</t>
+  </si>
+  <si>
+    <t>P00009</t>
+  </si>
+  <si>
+    <t>Imprimante Laser</t>
+  </si>
+  <si>
+    <t>P00010</t>
+  </si>
+  <si>
+    <t>Casque audio</t>
+  </si>
+  <si>
+    <t>P00011</t>
+  </si>
+  <si>
+    <t>Ventilateur Electrique</t>
+  </si>
+  <si>
+    <t>P00014</t>
+  </si>
+  <si>
+    <t>Bague</t>
+  </si>
+  <si>
+    <t>P00012</t>
+  </si>
+  <si>
+    <t>Webcam HD</t>
+  </si>
+  <si>
+    <t>P00013</t>
+  </si>
+  <si>
+    <t>Clé USB 64Go</t>
+  </si>
+  <si>
+    <t>P00015</t>
+  </si>
+  <si>
+    <t>Souris sans fil</t>
+  </si>
+  <si>
+    <t>P00016</t>
+  </si>
+  <si>
+    <t>Adaptateur USB-C</t>
+  </si>
+  <si>
+    <t>P00017</t>
+  </si>
+  <si>
+    <t>Écran 27"</t>
+  </si>
+  <si>
+    <t>P00018</t>
+  </si>
+  <si>
+    <t>Clavier mécanique</t>
+  </si>
+  <si>
+    <t>P00019</t>
+  </si>
+  <si>
+    <t>Carte graphique GTX 1660</t>
+  </si>
+  <si>
+    <t>P00020</t>
+  </si>
+  <si>
+    <t>Disque dur externe 2To</t>
+  </si>
+  <si>
+    <t>P00021</t>
+  </si>
+  <si>
+    <t>Routeur Wi-Fi</t>
+  </si>
+  <si>
+    <t>P00022</t>
+  </si>
+  <si>
+    <t>Hub USB 3.0</t>
+  </si>
+  <si>
+    <t>P00023</t>
+  </si>
+  <si>
+    <t>Écouteurs Bluetooth</t>
+  </si>
+  <si>
+    <t>P00024</t>
+  </si>
+  <si>
+    <t>Alimentation 650W</t>
+  </si>
+  <si>
+    <t>P00025</t>
+  </si>
+  <si>
+    <t>SSD 512Go</t>
+  </si>
+  <si>
+    <t>P00026</t>
+  </si>
+  <si>
+    <t>Imprimante jet d'encre</t>
+  </si>
+  <si>
+    <t>P00027</t>
+  </si>
+  <si>
+    <t>Tapis de souris</t>
+  </si>
+  <si>
+    <t>P00028</t>
+  </si>
+  <si>
+    <t>Câble Ethernet 5m</t>
+  </si>
+  <si>
+    <t>P00029</t>
+  </si>
+  <si>
+    <t>Barre de son</t>
+  </si>
+  <si>
+    <t>P00030</t>
+  </si>
+  <si>
+    <t>Clé USB 128Go</t>
+  </si>
+  <si>
+    <t>P00031</t>
+  </si>
+  <si>
+    <t>Écran 32"</t>
+  </si>
+  <si>
+    <t>P00032</t>
+  </si>
+  <si>
+    <t>Processeur i7</t>
+  </si>
+  <si>
+    <t>P00033</t>
+  </si>
+  <si>
+    <t>Carte mère ATX</t>
+  </si>
+  <si>
+    <t>P00034</t>
+  </si>
+  <si>
+    <t>Ventilateur PC 120mm</t>
+  </si>
+  <si>
+    <t>P00035</t>
+  </si>
+  <si>
+    <t>Batterie externe 10000mAh</t>
+  </si>
+  <si>
+    <t>P00036</t>
+  </si>
+  <si>
+    <t>Adaptateur DisplayPort</t>
+  </si>
+  <si>
+    <t>P00037</t>
+  </si>
+  <si>
+    <t>Micro-casque gamer</t>
+  </si>
+  <si>
+    <t>P00038</t>
+  </si>
+  <si>
+    <t>Enceintes 2.1</t>
+  </si>
+  <si>
+    <t>P00039</t>
+  </si>
+  <si>
+    <t>RAM 16Go DDR4</t>
+  </si>
+  <si>
+    <t>P00040</t>
+  </si>
+  <si>
+    <t>SSD 1To</t>
+  </si>
+  <si>
+    <t>P00041</t>
+  </si>
+  <si>
+    <t>Clavier sans fil</t>
+  </si>
+  <si>
+    <t>P00042</t>
+  </si>
+  <si>
+    <t>Souris ergonomique</t>
+  </si>
+  <si>
+    <t>P00043</t>
+  </si>
+  <si>
+    <t>Câble USB-C 2m</t>
+  </si>
+  <si>
+    <t>P00044</t>
+  </si>
+  <si>
+    <t>Hub USB-C</t>
+  </si>
+  <si>
+    <t>P00045</t>
+  </si>
+  <si>
+    <t>Imprimante multifonction</t>
+  </si>
+  <si>
+    <t>P00046</t>
+  </si>
+  <si>
+    <t>Disque dur externe 4To</t>
+  </si>
+  <si>
+    <t>P00047</t>
+  </si>
+  <si>
+    <t>Écran tactile 15"</t>
+  </si>
+  <si>
+    <t>P00048</t>
+  </si>
+  <si>
+    <t>Webcam 4K</t>
+  </si>
+  <si>
+    <t>P00049</t>
+  </si>
+  <si>
+    <t>Bracelet connecté</t>
+  </si>
+  <si>
+    <t>P00050</t>
+  </si>
+  <si>
+    <t>Chargeur universel laptop</t>
+  </si>
+  <si>
+    <t>P00051</t>
+  </si>
+  <si>
+    <t>Câble VGA</t>
+  </si>
+  <si>
+    <t>P00052</t>
+  </si>
+  <si>
+    <t>Adaptateur Wi-Fi USB</t>
+  </si>
+  <si>
+    <t>P00053</t>
+  </si>
+  <si>
+    <t>Haut-parleurs Bluetooth</t>
+  </si>
+  <si>
+    <t>P00054</t>
+  </si>
+  <si>
+    <t>Clé USB 32Go</t>
+  </si>
+  <si>
+    <t>P00055</t>
+  </si>
+  <si>
+    <t>Processeur i9</t>
+  </si>
+  <si>
+    <t>P00056</t>
+  </si>
+  <si>
+    <t>Carte graphique RTX 3060</t>
+  </si>
+  <si>
+    <t>P00057</t>
+  </si>
+  <si>
+    <t>Boîtier PC ATX</t>
+  </si>
+  <si>
+    <t>P00058</t>
+  </si>
+  <si>
+    <t>Montre connectée</t>
+  </si>
+  <si>
+    <t>P00059</t>
+  </si>
+  <si>
+    <t>Ventilateur USB portable</t>
+  </si>
+  <si>
+    <t>P00060</t>
+  </si>
+  <si>
+    <t>Sacoche pour laptop</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +426,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,214 +751,684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>code_produit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>libelle</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>prix_unitaire</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>P00001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Clavier USB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>10000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P00002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Souris Optique</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>7000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P00003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Écran 24"</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>85000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P00004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>UC i5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>200000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P00005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Câble HDMI</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>5000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P00006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RAM 8Go DDR4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>30000</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P00007</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SSD 256Go</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
         <v>45000</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P00008</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Disque dur 1To</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>60000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P00009</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Imprimante Laser</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>120000</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P00010</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Casque audio</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
         <v>15000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P00011</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ventilateur Electrique</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>15000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P00014</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bague</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>35000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
